--- a/docs/Sprint 6 - 0505 To 1805/LogTime.xlsx
+++ b/docs/Sprint 6 - 0505 To 1805/LogTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -20,87 +20,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>21/04/2014</t>
-  </si>
-  <si>
-    <t>22/04/2014</t>
-  </si>
-  <si>
-    <t>23/04/2014</t>
-  </si>
-  <si>
-    <t>24/04/2014</t>
-  </si>
-  <si>
-    <t>25/04/2014</t>
-  </si>
-  <si>
-    <t>26/04/2014</t>
-  </si>
-  <si>
-    <t>27/04/2014</t>
-  </si>
-  <si>
-    <t>28/04/2014</t>
-  </si>
-  <si>
-    <t>29/04/2014</t>
-  </si>
-  <si>
-    <t>30/04/2014</t>
-  </si>
-  <si>
-    <t>01/05/2014</t>
-  </si>
-  <si>
-    <t>02/05/2014</t>
-  </si>
-  <si>
-    <t>03/05/2014</t>
-  </si>
-  <si>
-    <t>04/05/2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cắt HTML -home </t>
-  </si>
-  <si>
-    <t>thêm angular js vs bootstraps cho mockup</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> update giao diện cho portal. - login, change password.</t>
-  </si>
-  <si>
-    <t>Meeting + thay đổi giao diện user</t>
-  </si>
-  <si>
-    <t>UPdate giao diện cho phần account</t>
-  </si>
-  <si>
-    <t>User Account</t>
-  </si>
-  <si>
     <t>order history</t>
   </si>
   <si>
-    <t>Ghép giao diện phần order history</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Đa ngôn ngữ cho các màn đã làm. </t>
-  </si>
-  <si>
-    <t>Cắt giao diện màn hình details.</t>
-  </si>
-  <si>
-    <t>Home Menu, Hot, tất cả đều Ajax</t>
-  </si>
-  <si>
-    <t>Trang chủ</t>
+    <t>05/05/2014</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>08/05/2014</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>11/05/2014</t>
+  </si>
+  <si>
+    <t>12/05/2014</t>
+  </si>
+  <si>
+    <t>13/05/2014</t>
+  </si>
+  <si>
+    <t>14/05/2014</t>
+  </si>
+  <si>
+    <t>15/05/2014</t>
+  </si>
+  <si>
+    <t>16/05/2014</t>
+  </si>
+  <si>
+    <t>17/05/2014</t>
+  </si>
+  <si>
+    <t>18/05/2014</t>
+  </si>
+  <si>
+    <t>Cắt giao diện màn hình list</t>
+  </si>
+  <si>
+    <t>Update mầu mới</t>
+  </si>
+  <si>
+    <t>Commit UI màn hình List</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa màu menu, header và hợp nhất class cho slide</t>
+  </si>
+  <si>
+    <t>Include facebook plugin cho comment, và facebook API cho share</t>
+  </si>
+  <si>
+    <t>metting + Màn hình main của Admin.
+Sửa css màn hình home</t>
+  </si>
+  <si>
+    <t>Cập nhật màn hình seller, user, product.</t>
+  </si>
+  <si>
+    <t>Màn hình list đã xong, bổ sung seller name &amp; view cho những chỗ còn thiếu</t>
+  </si>
+  <si>
+    <t>Tích hợp thanh toán ngân lượng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model cho ngân lượng </t>
+  </si>
+  <si>
+    <t>HTML Page</t>
+  </si>
+  <si>
+    <t>Cập nhật flow thanh toán</t>
   </si>
 </sst>
 </file>
@@ -142,13 +146,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,47 +185,47 @@
   <autoFilter ref="A1:O12"/>
   <tableColumns count="15">
     <tableColumn id="1" name="order history"/>
-    <tableColumn id="2" name="21/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[21/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="22/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[22/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="23/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[23/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="24/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[24/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="25/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[25/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="26/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[26/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="27/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[27/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="28/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[28/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="29/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[29/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="30/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[30/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="01/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[01/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="02/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[02/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="03/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[03/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="04/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table2[04/05/2014])</totalsRowFormula>
+    <tableColumn id="2" name="05/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[05/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="06/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[06/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="07/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[07/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="08/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[08/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="09/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[09/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="10/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[10/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="11/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[11/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="12/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[12/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="13/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[13/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="14/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[14/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="15/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[15/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="16/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[16/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="17/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[17/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="18/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table2[18/05/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -230,47 +237,47 @@
   <autoFilter ref="A1:O9"/>
   <tableColumns count="15">
     <tableColumn id="1" name="Name"/>
-    <tableColumn id="2" name="21/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[21/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="3" name="22/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[22/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" name="23/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[23/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="5" name="24/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[24/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="6" name="25/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[25/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="7" name="26/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[26/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="8" name="27/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[27/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="9" name="28/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[28/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" name="29/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[29/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="11" name="30/04/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[30/04/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="12" name="01/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[01/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="13" name="02/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[02/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" name="03/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[03/05/2014])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="15" name="04/05/2014" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(Table24[04/05/2014])</totalsRowFormula>
+    <tableColumn id="2" name="05/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[05/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="3" name="06/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[06/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" name="07/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[07/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" name="08/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[08/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" name="09/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[09/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="7" name="10/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[10/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="8" name="11/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[11/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="9" name="12/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[12/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="10" name="13/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[13/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="11" name="14/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[14/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="12" name="15/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[15/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="13" name="16/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[16/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="14" name="17/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[17/05/2014])</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="15" name="18/05/2014" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(Table24[18/05/2014])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -532,7 +539,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -542,8 +549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R13"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,49 +566,49 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -609,137 +616,145 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
+      <c r="A3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
+      <c r="A7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8">
-        <v>10</v>
+        <v>24</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B13">
-        <f>SUM(Table2[21/04/2014])</f>
+        <f>SUM(Table2[05/05/2014])</f>
         <v>4</v>
       </c>
       <c r="C13">
-        <f>SUM(Table2[22/04/2014])</f>
+        <f>SUM(Table2[06/05/2014])</f>
         <v>4</v>
       </c>
       <c r="D13">
-        <f>SUM(Table2[23/04/2014])</f>
+        <f>SUM(Table2[07/05/2014])</f>
         <v>4</v>
       </c>
       <c r="E13">
-        <f>SUM(Table2[24/04/2014])</f>
-        <v>4</v>
+        <f>SUM(Table2[08/05/2014])</f>
+        <v>0</v>
       </c>
       <c r="F13">
-        <f>SUM(Table2[25/04/2014])</f>
+        <f>SUM(Table2[09/05/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <f>SUM(Table2[10/05/2014])</f>
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <f>SUM(Table2[11/05/2014])</f>
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <f>SUM(Table2[12/05/2014])</f>
         <v>5</v>
       </c>
-      <c r="G13">
-        <f>SUM(Table2[26/04/2014])</f>
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <f>SUM(Table2[27/04/2014])</f>
-        <v>10</v>
-      </c>
-      <c r="I13">
-        <f>SUM(Table2[28/04/2014])</f>
-        <v>10</v>
-      </c>
       <c r="J13">
-        <f>SUM(Table2[29/04/2014])</f>
-        <v>6</v>
+        <f>SUM(Table2[13/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="K13">
-        <f>SUM(Table2[30/04/2014])</f>
-        <v>4</v>
+        <f>SUM(Table2[14/05/2014])</f>
+        <v>5</v>
       </c>
       <c r="L13">
-        <f>SUM(Table2[01/05/2014])</f>
-        <v>3</v>
+        <f>SUM(Table2[15/05/2014])</f>
+        <v>5</v>
       </c>
       <c r="M13">
-        <f>SUM(Table2[02/05/2014])</f>
+        <f>SUM(Table2[16/05/2014])</f>
         <v>0</v>
       </c>
       <c r="N13">
-        <f>SUM(Table2[03/05/2014])</f>
+        <f>SUM(Table2[17/05/2014])</f>
         <v>0</v>
       </c>
       <c r="O13">
-        <f>SUM(Table2[04/05/2014])</f>
+        <f>SUM(Table2[18/05/2014])</f>
         <v>0</v>
       </c>
     </row>
@@ -756,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,119 +789,119 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B10">
-        <f>SUM(Table24[21/04/2014])</f>
+        <f>SUM(Table24[05/05/2014])</f>
         <v>0</v>
       </c>
       <c r="C10">
-        <f>SUM(Table24[22/04/2014])</f>
-        <v>0</v>
+        <f>SUM(Table24[06/05/2014])</f>
+        <v>4</v>
       </c>
       <c r="D10">
-        <f>SUM(Table24[23/04/2014])</f>
+        <f>SUM(Table24[07/05/2014])</f>
         <v>0</v>
       </c>
       <c r="E10">
-        <f>SUM(Table24[24/04/2014])</f>
+        <f>SUM(Table24[08/05/2014])</f>
         <v>0</v>
       </c>
       <c r="F10">
-        <f>SUM(Table24[25/04/2014])</f>
-        <v>4</v>
+        <f>SUM(Table24[09/05/2014])</f>
+        <v>0</v>
       </c>
       <c r="G10">
-        <f>SUM(Table24[26/04/2014])</f>
+        <f>SUM(Table24[10/05/2014])</f>
         <v>0</v>
       </c>
       <c r="H10">
-        <f>SUM(Table24[27/04/2014])</f>
-        <v>4</v>
+        <f>SUM(Table24[11/05/2014])</f>
+        <v>8</v>
       </c>
       <c r="I10">
-        <f>SUM(Table24[28/04/2014])</f>
+        <f>SUM(Table24[12/05/2014])</f>
         <v>0</v>
       </c>
       <c r="J10">
-        <f>SUM(Table24[29/04/2014])</f>
+        <f>SUM(Table24[13/05/2014])</f>
         <v>0</v>
       </c>
       <c r="K10">
-        <f>SUM(Table24[30/04/2014])</f>
+        <f>SUM(Table24[14/05/2014])</f>
         <v>0</v>
       </c>
       <c r="L10">
-        <f>SUM(Table24[01/05/2014])</f>
+        <f>SUM(Table24[15/05/2014])</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f>SUM(Table24[02/05/2014])</f>
+        <f>SUM(Table24[16/05/2014])</f>
         <v>0</v>
       </c>
       <c r="N10">
-        <f>SUM(Table24[03/05/2014])</f>
+        <f>SUM(Table24[17/05/2014])</f>
         <v>0</v>
       </c>
       <c r="O10">
-        <f>SUM(Table24[04/05/2014])</f>
+        <f>SUM(Table24[18/05/2014])</f>
         <v>0</v>
       </c>
     </row>

--- a/docs/Sprint 6 - 0505 To 1805/LogTime.xlsx
+++ b/docs/Sprint 6 - 0505 To 1805/LogTime.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14160" windowHeight="6165" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ANLT" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="30">
   <si>
     <t>Name</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Cập nhật flow thanh toán</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>Ngân lượng</t>
   </si>
 </sst>
 </file>
@@ -181,8 +187,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O13" totalsRowCount="1" headerRowDxfId="1">
-  <autoFilter ref="A1:O12"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:O14" totalsRowCount="1" headerRowDxfId="1">
+  <autoFilter ref="A1:O13"/>
   <tableColumns count="15">
     <tableColumn id="1" name="order history"/>
     <tableColumn id="2" name="05/05/2014" totalsRowFunction="custom">
@@ -547,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,6 +659,9 @@
       <c r="F6">
         <v>4</v>
       </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
@@ -700,62 +709,78 @@
         <v>5</v>
       </c>
     </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+    </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14">
         <f>SUM(Table2[05/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <f>SUM(Table2[06/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <f>SUM(Table2[07/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <f>SUM(Table2[08/05/2014])</f>
         <v>0</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f>SUM(Table2[09/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f>SUM(Table2[10/05/2014])</f>
         <v>7</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <f>SUM(Table2[11/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <f>SUM(Table2[12/05/2014])</f>
         <v>5</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <f>SUM(Table2[13/05/2014])</f>
         <v>4</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <f>SUM(Table2[14/05/2014])</f>
         <v>5</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <f>SUM(Table2[15/05/2014])</f>
         <v>5</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <f>SUM(Table2[16/05/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
+        <v>6</v>
+      </c>
+      <c r="N14">
         <f>SUM(Table2[17/05/2014])</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
+        <v>10</v>
+      </c>
+      <c r="O14">
         <f>SUM(Table2[18/05/2014])</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -771,8 +796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
